--- a/EXCEL ASSIGNMENT 4 SOUMYAPW.xlsx
+++ b/EXCEL ASSIGNMENT 4 SOUMYAPW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c422ca3d7cbcf85/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="849" documentId="8_{756F6580-8C4B-4332-A27D-44C1AAEBB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD994FD2-E0B2-4478-BC8B-E2B04DFF8D14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB660FCA-F550-41AA-9F56-B1E3F3E87669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1677,7 +1677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1852,9 +1852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6619,10 +6616,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="soumya khosla" refreshedDate="45972.649235300923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{AA32641B-441F-4D59-936A-DA92EEB15B5D}">
   <cacheSource type="worksheet">
@@ -8641,21 +8634,21 @@
         <v>40</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
       <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -8666,21 +8659,21 @@
         <v>320.25</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
       <c r="U6" s="29"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -8691,21 +8684,21 @@
         <v>344</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -8716,21 +8709,21 @@
         <v>319.33333333333331</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
       <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -8741,21 +8734,21 @@
         <v>385</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -8766,21 +8759,21 @@
         <v>428.66666666666669</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
       <c r="U10" s="29"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -8791,21 +8784,21 @@
         <v>279.25</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
       <c r="U11" s="29"/>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/EXCEL ASSIGNMENT 4 SOUMYAPW.xlsx
+++ b/EXCEL ASSIGNMENT 4 SOUMYAPW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c422ca3d7cbcf85/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB660FCA-F550-41AA-9F56-B1E3F3E87669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04198D2D-9DFD-4AAB-A4AD-96E4DC05B781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7436,125 +7436,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B649EB8-BB8A-4274-9227-DB6F04A6C0B6}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Region">
-  <location ref="A7:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Total Sales" fld="3" baseField="1" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C5FABDB-255C-475A-AFC6-BAD355E4360C}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Months">
   <location ref="A15:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -7646,6 +7527,125 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Total Sales" fld="3" baseField="5" baseItem="1" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B649EB8-BB8A-4274-9227-DB6F04A6C0B6}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Region">
+  <location ref="A7:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total Sales" fld="3" baseField="1" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
     <format dxfId="5">
@@ -8563,10 +8563,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C23DC2-46EE-4C0D-A483-A57D659EA790}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E4" sqref="E4:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8606,7 +8606,7 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="25"/>
@@ -8624,7 +8624,7 @@
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -8633,7 +8633,7 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -8649,7 +8649,7 @@
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
+      <c r="U5" s="28"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -8658,7 +8658,7 @@
       <c r="B6" s="8">
         <v>320.25</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -8674,7 +8674,7 @@
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="29"/>
+      <c r="U6" s="28"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8683,7 +8683,7 @@
       <c r="B7" s="8">
         <v>344</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -8699,7 +8699,7 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
+      <c r="U7" s="28"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -8708,7 +8708,7 @@
       <c r="B8" s="8">
         <v>319.33333333333331</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -8724,7 +8724,7 @@
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -8733,7 +8733,7 @@
       <c r="B9" s="8">
         <v>385</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -8749,7 +8749,7 @@
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="29"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -8758,7 +8758,7 @@
       <c r="B10" s="8">
         <v>428.66666666666669</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -8774,7 +8774,7 @@
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
-      <c r="U10" s="29"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -8783,7 +8783,7 @@
       <c r="B11" s="8">
         <v>279.25</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -8799,37 +8799,94 @@
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U11" s="28"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>341.45</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:U2"/>
-    <mergeCell ref="E4:U12"/>
+    <mergeCell ref="E4:U15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
